--- a/Detector/output/Index_of_objects.xlsx
+++ b/Detector/output/Index_of_objects.xlsx
@@ -133,7 +133,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="419100" cy="304800"/>
+    <ext cx="476250" cy="933450"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -158,7 +158,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="419100" cy="419100"/>
+    <ext cx="933450" cy="876300"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -183,7 +183,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="933450" cy="819150"/>
+    <ext cx="533400" cy="533400"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -208,7 +208,7 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1676400" cy="1162050"/>
+    <ext cx="476250" cy="476250"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -233,7 +233,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="533400" cy="533400"/>
+    <ext cx="2076450" cy="1962150"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -258,7 +258,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="419100" cy="304800"/>
+    <ext cx="876300" cy="1104900"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -283,7 +283,7 @@
       <row>7</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="361950" cy="361950"/>
+    <ext cx="1104900" cy="1162050"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -308,7 +308,7 @@
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="361950" cy="361950"/>
+    <ext cx="476250" cy="533400"/>
     <pic>
       <nvPicPr>
         <cNvPr id="8" name="Image 8" descr="Picture"/>
@@ -333,7 +333,7 @@
       <row>9</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="419100" cy="361950"/>
+    <ext cx="476250" cy="704850"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -358,7 +358,7 @@
       <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="304800" cy="361950"/>
+    <ext cx="419100" cy="419100"/>
     <pic>
       <nvPicPr>
         <cNvPr id="10" name="Image 10" descr="Picture"/>
@@ -383,7 +383,7 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="476250" cy="419100"/>
+    <ext cx="533400" cy="533400"/>
     <pic>
       <nvPicPr>
         <cNvPr id="11" name="Image 11" descr="Picture"/>
@@ -408,7 +408,7 @@
       <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="476250" cy="361950"/>
+    <ext cx="533400" cy="476250"/>
     <pic>
       <nvPicPr>
         <cNvPr id="12" name="Image 12" descr="Picture"/>
@@ -433,7 +433,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="419100" cy="419100"/>
+    <ext cx="647700" cy="704850"/>
     <pic>
       <nvPicPr>
         <cNvPr id="13" name="Image 13" descr="Picture"/>
@@ -458,7 +458,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1447800" cy="1333500"/>
+    <ext cx="533400" cy="533400"/>
     <pic>
       <nvPicPr>
         <cNvPr id="14" name="Image 14" descr="Picture"/>
@@ -483,7 +483,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="762000" cy="647700"/>
+    <ext cx="533400" cy="590550"/>
     <pic>
       <nvPicPr>
         <cNvPr id="15" name="Image 15" descr="Picture"/>
@@ -508,7 +508,7 @@
       <row>16</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="533400" cy="476250"/>
+    <ext cx="304800" cy="533400"/>
     <pic>
       <nvPicPr>
         <cNvPr id="16" name="Image 16" descr="Picture"/>
@@ -533,7 +533,7 @@
       <row>17</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="476250" cy="361950"/>
+    <ext cx="1219200" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="17" name="Image 17" descr="Picture"/>
@@ -558,7 +558,7 @@
       <row>18</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="476250" cy="533400"/>
+    <ext cx="590550" cy="476250"/>
     <pic>
       <nvPicPr>
         <cNvPr id="18" name="Image 18" descr="Picture"/>
@@ -583,7 +583,7 @@
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="590550" cy="533400"/>
+    <ext cx="1447800" cy="1104900"/>
     <pic>
       <nvPicPr>
         <cNvPr id="19" name="Image 19" descr="Picture"/>
@@ -608,7 +608,7 @@
       <row>20</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="476250" cy="533400"/>
+    <ext cx="704850" cy="990600"/>
     <pic>
       <nvPicPr>
         <cNvPr id="20" name="Image 20" descr="Picture"/>
@@ -616,256 +616,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>21</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="533400" cy="361950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="21" name="Image 21" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>22</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1104900" cy="704850"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="22" name="Image 22" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>23</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="419100" cy="361950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="23" name="Image 23" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>24</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="361950" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="24" name="Image 24" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>25</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="819150" cy="647700"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="25" name="Image 25" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>26</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="419100" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="26" name="Image 26" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>27</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="876300" cy="590550"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="27" name="Image 27" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>28</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="361950" cy="361950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="28" name="Image 28" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>29</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="533400" cy="533400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="29" name="Image 29" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="361950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="30" name="Image 30" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1168,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +926,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26.4" customWidth="1" min="7" max="7"/>
+    <col width="32.7" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1256,120 +1006,120 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="25.6" customHeight="1">
+    <row r="2" ht="78.40000000000001" customHeight="1">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>31.603</v>
+        <v>93.313</v>
       </c>
       <c r="C2" t="n">
-        <v>104.907</v>
+        <v>275.638</v>
       </c>
       <c r="D2" t="n">
-        <v>1.261875134721056</v>
+        <v>98.402766</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.04909560723514206</v>
+        <v>0.665955934612651</v>
       </c>
       <c r="F2" t="n">
-        <v>210.9616680710992</v>
+        <v>76.4872812969394</v>
       </c>
       <c r="H2" t="n">
-        <v>202</v>
+        <v>407</v>
       </c>
       <c r="I2" t="n">
-        <v>994</v>
+        <v>3206</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>0.6707920792079207</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="M2" t="n">
+        <v>0.5859559346126511</v>
       </c>
       <c r="N2" t="n">
-        <v>492.2709359605911</v>
+        <v>455.0787234042553</v>
       </c>
       <c r="O2" t="n">
-        <v>2905.418719211822</v>
-      </c>
-    </row>
-    <row r="3" ht="35.2" customHeight="1">
+        <v>2161.574468085106</v>
+      </c>
+    </row>
+    <row r="3" ht="73.60000000000001" customHeight="1">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>45.815</v>
+        <v>122.111</v>
       </c>
       <c r="C3" t="n">
-        <v>353.617</v>
+        <v>260.117</v>
       </c>
       <c r="D3" t="n">
-        <v>1.258319633023361</v>
+        <v>119.104414</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04761904761904767</v>
+        <v>0.3071051086318262</v>
       </c>
       <c r="F3" t="n">
-        <v>193.899604596669</v>
+        <v>406.8055277302022</v>
       </c>
       <c r="H3" t="n">
-        <v>256</v>
+        <v>780</v>
       </c>
       <c r="I3" t="n">
-        <v>1130</v>
+        <v>4209</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>0.1640625</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="M3" t="n">
+        <v>0.2271051086318261</v>
       </c>
       <c r="N3" t="n">
-        <v>435.8181818181818</v>
+        <v>463.1572033898305</v>
       </c>
       <c r="O3" t="n">
-        <v>1776.363636363636</v>
-      </c>
-    </row>
-    <row r="4" ht="68.8" customHeight="1">
+        <v>2323.144067796609</v>
+      </c>
+    </row>
+    <row r="4" ht="44.8" customHeight="1">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>115.379</v>
+        <v>207.57</v>
       </c>
       <c r="C4" t="n">
-        <v>265.727</v>
+        <v>349.129</v>
       </c>
       <c r="D4" t="n">
-        <v>1.340764711995573</v>
+        <v>60.985936</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3813868613138686</v>
+        <v>-0.02981651376146788</v>
       </c>
       <c r="F4" t="n">
-        <v>417.4173123451408</v>
+        <v>460.3854425858929</v>
       </c>
       <c r="H4" t="n">
-        <v>869</v>
+        <v>197</v>
       </c>
       <c r="I4" t="n">
-        <v>4833</v>
+        <v>1942</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -1378,43 +1128,40 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>0.3013868613138685</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="N4" t="n">
-        <v>463.3355457227138</v>
+        <v>610.7644766146993</v>
       </c>
       <c r="O4" t="n">
-        <v>2326.710914454277</v>
-      </c>
-    </row>
-    <row r="5" ht="97.60000000000001" customHeight="1">
+        <v>5275.289532293986</v>
+      </c>
+    </row>
+    <row r="5" ht="40" customHeight="1">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>133.892</v>
+        <v>209.253</v>
       </c>
       <c r="C5" t="n">
-        <v>174.845</v>
+        <v>235.807</v>
       </c>
       <c r="D5" t="n">
-        <v>1.386140256160304</v>
+        <v>53.712384</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3487143360338147</v>
+        <v>0.1197916666666666</v>
       </c>
       <c r="F5" t="n">
-        <v>1202.226360883364</v>
+        <v>295.5070326524488</v>
       </c>
       <c r="H5" t="n">
-        <v>1263</v>
+        <v>279</v>
       </c>
       <c r="I5" t="n">
-        <v>12307</v>
+        <v>1430</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -1427,188 +1174,179 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0.2687143360338147</v>
+        <v>0.03979166666666663</v>
       </c>
       <c r="N5" t="n">
-        <v>582.3945375878853</v>
+        <v>515.5954142011834</v>
       </c>
       <c r="O5" t="n">
-        <v>4707.890751757706</v>
-      </c>
-    </row>
-    <row r="6" ht="44.8" customHeight="1">
+        <v>3371.908284023668</v>
+      </c>
+    </row>
+    <row r="6" ht="164.8" customHeight="1">
       <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>138.567</v>
+        <v>224.774</v>
       </c>
       <c r="C6" t="n">
-        <v>298.265</v>
+        <v>171.853</v>
       </c>
       <c r="D6" t="n">
-        <v>1.284548918470913</v>
+        <v>1099.705112</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1708074534161491</v>
+        <v>0.7439582803357925</v>
       </c>
       <c r="F6" t="n">
-        <v>219.3898518419161</v>
+        <v>513.4100339231298</v>
       </c>
       <c r="H6" t="n">
-        <v>358</v>
+        <v>1813</v>
       </c>
       <c r="I6" t="n">
-        <v>1528</v>
+        <v>32241</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>0.0181564245810053</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
       <c r="M6" t="n">
-        <v>0.09080745341614911</v>
+        <v>0.6639582803357925</v>
       </c>
       <c r="N6" t="n">
-        <v>456.2612359550562</v>
+        <v>572.0183805265773</v>
       </c>
       <c r="O6" t="n">
-        <v>2185.224719101123</v>
-      </c>
-    </row>
-    <row r="7" ht="25.6" customHeight="1">
+        <v>4500.367610531544</v>
+      </c>
+    </row>
+    <row r="7" ht="92.80000000000001" customHeight="1">
       <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>141.933</v>
+        <v>230.197</v>
       </c>
       <c r="C7" t="n">
-        <v>99.297</v>
+        <v>283.866</v>
       </c>
       <c r="D7" t="n">
-        <v>1.26072045308418</v>
+        <v>147.56918</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03448275862068972</v>
+        <v>0.371563981042654</v>
       </c>
       <c r="F7" t="n">
-        <v>199.7191308994322</v>
+        <v>414.6506689001159</v>
       </c>
       <c r="H7" t="n">
-        <v>179</v>
+        <v>757</v>
       </c>
       <c r="I7" t="n">
-        <v>865</v>
+        <v>4619</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>0.5824022346368718</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="M7" t="n">
+        <v>0.291563981042654</v>
       </c>
       <c r="N7" t="n">
-        <v>468.9974358974359</v>
+        <v>531.0049019607843</v>
       </c>
       <c r="O7" t="n">
-        <v>2439.948717948719</v>
-      </c>
-    </row>
-    <row r="8" ht="30.4" customHeight="1">
+        <v>3680.098039215687</v>
+      </c>
+    </row>
+    <row r="8" ht="97.60000000000001" customHeight="1">
       <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>164.934</v>
+        <v>252.263</v>
       </c>
       <c r="C8" t="n">
-        <v>199.716</v>
+        <v>207.57</v>
       </c>
       <c r="D8" t="n">
-        <v>1.261989014791204</v>
+        <v>293.949414</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08762886597938147</v>
+        <v>0.1805852962169878</v>
       </c>
       <c r="F8" t="n">
-        <v>159.4834204774009</v>
+        <v>1409.03141020696</v>
       </c>
       <c r="H8" t="n">
-        <v>235</v>
+        <v>662</v>
       </c>
       <c r="I8" t="n">
-        <v>860</v>
+        <v>8434</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="K8" t="n">
-        <v>0.5904255319148937</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
       <c r="M8" t="n">
-        <v>0.007628865979381463</v>
+        <v>0.1005852962169878</v>
       </c>
       <c r="N8" t="n">
-        <v>426.638418079096</v>
+        <v>605.7076074332172</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.768361581921</v>
-      </c>
-    </row>
-    <row r="9" ht="30.4" customHeight="1">
+        <v>5174.152148664343</v>
+      </c>
+    </row>
+    <row r="9" ht="44.8" customHeight="1">
       <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>177.276</v>
+        <v>283.679</v>
       </c>
       <c r="C9" t="n">
-        <v>27.676</v>
+        <v>4.488</v>
       </c>
       <c r="D9" t="n">
-        <v>1.2674506536995</v>
+        <v>33.849992</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0751708428246014</v>
+        <v>-0.04132231404958686</v>
       </c>
       <c r="F9" t="n">
-        <v>185.7349348898586</v>
+        <v>260.4093830330913</v>
       </c>
       <c r="H9" t="n">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="I9" t="n">
-        <v>900</v>
+        <v>1220</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>0.2676991150442478</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1616,36 +1354,36 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>429.8928571428572</v>
+        <v>530.4831349206349</v>
       </c>
       <c r="O9" t="n">
-        <v>1657.857142857143</v>
-      </c>
-    </row>
-    <row r="10" ht="30.4" customHeight="1">
+        <v>3669.662698412698</v>
+      </c>
+    </row>
+    <row r="10" ht="59.2" customHeight="1">
       <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>182.325</v>
+        <v>305.745</v>
       </c>
       <c r="C10" t="n">
-        <v>202.708</v>
+        <v>193.358</v>
       </c>
       <c r="D10" t="n">
-        <v>1.269329936595887</v>
+        <v>77.63118</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04366812227074246</v>
+        <v>0.381981981981982</v>
       </c>
       <c r="F10" t="n">
-        <v>247.4326397187202</v>
+        <v>209.9754177179316</v>
       </c>
       <c r="H10" t="n">
-        <v>164</v>
+        <v>457</v>
       </c>
       <c r="I10" t="n">
-        <v>967</v>
+        <v>2352</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1654,48 +1392,48 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0.301981981981982</v>
       </c>
       <c r="N10" t="n">
-        <v>607.7834728033473</v>
+        <v>463.268221574344</v>
       </c>
       <c r="O10" t="n">
-        <v>5215.669456066946</v>
-      </c>
-    </row>
-    <row r="11" ht="30.4" customHeight="1">
+        <v>2325.36443148688</v>
+      </c>
+    </row>
+    <row r="11" ht="35.2" customHeight="1">
       <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>185.317</v>
+        <v>311.355</v>
       </c>
       <c r="C11" t="n">
-        <v>210.749</v>
+        <v>247.214</v>
       </c>
       <c r="D11" t="n">
-        <v>1.261301440289829</v>
+        <v>37.207016</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.03664921465968596</v>
+        <v>-0.03383458646616533</v>
       </c>
       <c r="F11" t="n">
-        <v>203.2516244927409</v>
+        <v>282.3009689595003</v>
       </c>
       <c r="H11" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I11" t="n">
-        <v>559</v>
+        <v>690</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>0.3948275862068966</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1703,36 +1441,36 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>573.5353535353536</v>
+        <v>600.9245454545454</v>
       </c>
       <c r="O11" t="n">
-        <v>4530.707070707071</v>
-      </c>
-    </row>
-    <row r="12" ht="35.2" customHeight="1">
+        <v>5078.49090909091</v>
+      </c>
+    </row>
+    <row r="12" ht="44.8" customHeight="1">
       <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>193.171</v>
+        <v>336.039</v>
       </c>
       <c r="C12" t="n">
-        <v>192.984</v>
+        <v>72.369</v>
       </c>
       <c r="D12" t="n">
-        <v>1.275489443068829</v>
+        <v>51.824058</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04182509505703425</v>
+        <v>-0.02564102564102555</v>
       </c>
       <c r="F12" t="n">
-        <v>239.4558999113147</v>
+        <v>387.7410107024969</v>
       </c>
       <c r="H12" t="n">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="I12" t="n">
-        <v>1258</v>
+        <v>1686</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1745,36 +1483,36 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>509.328373015873</v>
+        <v>457.3638157894737</v>
       </c>
       <c r="O12" t="n">
-        <v>3246.567460317461</v>
-      </c>
-    </row>
-    <row r="13" ht="30.4" customHeight="1">
+        <v>2207.276315789473</v>
+      </c>
+    </row>
+    <row r="13" ht="40" customHeight="1">
       <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>225.335</v>
+        <v>343.519</v>
       </c>
       <c r="C13" t="n">
-        <v>119.867</v>
+        <v>106.029</v>
       </c>
       <c r="D13" t="n">
-        <v>1.277154998473718</v>
+        <v>41.683048</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.04029304029304037</v>
+        <v>0.238255033557047</v>
       </c>
       <c r="F13" t="n">
-        <v>293.4398155893915</v>
+        <v>170.9102563586194</v>
       </c>
       <c r="H13" t="n">
-        <v>162</v>
+        <v>348</v>
       </c>
       <c r="I13" t="n">
-        <v>756</v>
+        <v>1587</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1782,94 +1520,100 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.416666666666667</v>
+        <v>0.3103448275862073</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0.158255033557047</v>
       </c>
       <c r="N13" t="n">
-        <v>617.6505281690141</v>
+        <v>451.9394273127753</v>
       </c>
       <c r="O13" t="n">
-        <v>5413.010563380281</v>
-      </c>
-    </row>
-    <row r="14" ht="35.2" customHeight="1">
+        <v>2098.788546255506</v>
+      </c>
+    </row>
+    <row r="14" ht="59.2" customHeight="1">
       <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>226.457</v>
+        <v>343.706</v>
       </c>
       <c r="C14" t="n">
-        <v>183.447</v>
+        <v>356.422</v>
       </c>
       <c r="D14" t="n">
-        <v>1.266943058157707</v>
+        <v>110.082412</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.032258064516129</v>
+        <v>0.2147395171537484</v>
       </c>
       <c r="F14" t="n">
-        <v>229.2214438580302</v>
+        <v>483.2889092432861</v>
       </c>
       <c r="H14" t="n">
-        <v>250</v>
+        <v>422</v>
       </c>
       <c r="I14" t="n">
-        <v>1036</v>
+        <v>2406</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="K14" t="n">
-        <v>0.1059999999999999</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="M14" t="n">
+        <v>0.1347395171537484</v>
       </c>
       <c r="N14" t="n">
-        <v>500.4118303571428</v>
+        <v>541.5995145631068</v>
       </c>
       <c r="O14" t="n">
-        <v>3068.236607142857</v>
-      </c>
-    </row>
-    <row r="15" ht="112" customHeight="1">
+        <v>3891.990291262136</v>
+      </c>
+    </row>
+    <row r="15" ht="44.8" customHeight="1">
       <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>268.158</v>
+        <v>348.007</v>
       </c>
       <c r="C15" t="n">
-        <v>181.203</v>
+        <v>165.869</v>
       </c>
       <c r="D15" t="n">
-        <v>1.39234839954062</v>
+        <v>32.101542</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3902665840049597</v>
+        <v>0.2374727668845316</v>
       </c>
       <c r="F15" t="n">
-        <v>1197.344794080929</v>
+        <v>131.4346574518721</v>
       </c>
       <c r="H15" t="n">
-        <v>1902</v>
+        <v>226</v>
       </c>
       <c r="I15" t="n">
-        <v>13280</v>
+        <v>814</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.6482300884955752</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1877,39 +1621,39 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>0.3102665840049597</v>
+        <v>0.1574727668845315</v>
       </c>
       <c r="N15" t="n">
-        <v>547.5613879003558</v>
+        <v>490.4742857142857</v>
       </c>
       <c r="O15" t="n">
-        <v>4011.227758007117</v>
-      </c>
-    </row>
-    <row r="16" ht="54.40000000000001" customHeight="1">
+        <v>2869.485714285714</v>
+      </c>
+    </row>
+    <row r="16" ht="49.6" customHeight="1">
       <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>261.426</v>
+        <v>369.886</v>
       </c>
       <c r="C16" t="n">
-        <v>347.072</v>
+        <v>28.237</v>
       </c>
       <c r="D16" t="n">
-        <v>1.324494577288323</v>
+        <v>74.55390800000001</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.003880983182406261</v>
+        <v>-0.02439024390243905</v>
       </c>
       <c r="F16" t="n">
-        <v>777.0103559654132</v>
+        <v>557.3152788542328</v>
       </c>
       <c r="H16" t="n">
-        <v>313</v>
+        <v>247</v>
       </c>
       <c r="I16" t="n">
-        <v>2634</v>
+        <v>2444</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1922,84 +1666,81 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>634.4275128865979</v>
+        <v>618.0178571428571</v>
       </c>
       <c r="O16" t="n">
-        <v>5748.550257731958</v>
-      </c>
-    </row>
-    <row r="17" ht="40" customHeight="1">
+        <v>5420.357142857143</v>
+      </c>
+    </row>
+    <row r="17" ht="44.8" customHeight="1">
       <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>273.02</v>
+        <v>378.114</v>
       </c>
       <c r="C17" t="n">
-        <v>86.955</v>
+        <v>2.431</v>
       </c>
       <c r="D17" t="n">
-        <v>1.285923442103531</v>
+        <v>11.959398</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4006024096385542</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="F17" t="n">
-        <v>117.2715932676882</v>
+        <v>58.6145183277723</v>
       </c>
       <c r="H17" t="n">
-        <v>358</v>
+        <v>107</v>
       </c>
       <c r="I17" t="n">
-        <v>1476</v>
+        <v>212</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>0.1270949720670389</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
       <c r="M17" t="n">
-        <v>0.3206024096385542</v>
+        <v>0.07789473684210531</v>
       </c>
       <c r="N17" t="n">
-        <v>457.0175879396985</v>
+        <v>513.1493055555555</v>
       </c>
       <c r="O17" t="n">
-        <v>2200.35175879397</v>
-      </c>
-    </row>
-    <row r="18" ht="30.4" customHeight="1">
+        <v>3322.986111111111</v>
+      </c>
+    </row>
+    <row r="18" ht="64" customHeight="1">
       <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>289.663</v>
+        <v>394.757</v>
       </c>
       <c r="C18" t="n">
-        <v>359.04</v>
+        <v>79.66200000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>1.270098798065062</v>
+        <v>72.45576800000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1673819742489271</v>
+        <v>0.4073359073359073</v>
       </c>
       <c r="F18" t="n">
-        <v>159.5216282532753</v>
+        <v>179.9423191114759</v>
       </c>
       <c r="H18" t="n">
-        <v>262</v>
+        <v>517</v>
       </c>
       <c r="I18" t="n">
-        <v>1141</v>
+        <v>2058</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -2007,7 +1748,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.1049618320610683</v>
+        <v>0.2693423597678919</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -2015,39 +1756,39 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>0.08738197424892709</v>
+        <v>0.3273359073359073</v>
       </c>
       <c r="N18" t="n">
-        <v>541.7461340206186</v>
+        <v>503.7524429967427</v>
       </c>
       <c r="O18" t="n">
-        <v>3894.922680412372</v>
-      </c>
-    </row>
-    <row r="19" ht="44.8" customHeight="1">
+        <v>3135.048859934854</v>
+      </c>
+    </row>
+    <row r="19" ht="40" customHeight="1">
       <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>323.697</v>
+        <v>391.578</v>
       </c>
       <c r="C19" t="n">
-        <v>344.08</v>
+        <v>116.501</v>
       </c>
       <c r="D19" t="n">
-        <v>1.273319363103927</v>
+        <v>29.933464</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005988023952095856</v>
+        <v>0.07943925233644855</v>
       </c>
       <c r="F19" t="n">
-        <v>245.5049087976174</v>
+        <v>179.3448914409069</v>
       </c>
       <c r="H19" t="n">
-        <v>321</v>
+        <v>181</v>
       </c>
       <c r="I19" t="n">
-        <v>1390</v>
+        <v>861</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -2055,7 +1796,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0.08021806853582536</v>
+        <v>0.5069060773480665</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -2063,544 +1804,103 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>592.1927710843373</v>
+        <v>491.0177664974619</v>
       </c>
       <c r="O19" t="n">
-        <v>4903.855421686747</v>
-      </c>
-    </row>
-    <row r="20" ht="44.8" customHeight="1">
+        <v>2880.355329949238</v>
+      </c>
+    </row>
+    <row r="20" ht="92.80000000000001" customHeight="1">
       <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>327.811</v>
+        <v>401.302</v>
       </c>
       <c r="C20" t="n">
-        <v>262.922</v>
+        <v>128.282</v>
       </c>
       <c r="D20" t="n">
-        <v>1.29472394055823</v>
+        <v>299.054888</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00123915737298641</v>
+        <v>0.4470299345182414</v>
       </c>
       <c r="F20" t="n">
-        <v>400.4981226880811</v>
+        <v>651.7473255788649</v>
       </c>
       <c r="H20" t="n">
-        <v>355</v>
+        <v>1081</v>
       </c>
       <c r="I20" t="n">
-        <v>1655</v>
+        <v>9941</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="K20" t="n">
-        <v>0.4119718309859151</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="M20" t="n">
+        <v>0.3670299345182413</v>
       </c>
       <c r="N20" t="n">
-        <v>522.544665012407</v>
+        <v>524.3728060900825</v>
       </c>
       <c r="O20" t="n">
-        <v>3510.893300248139</v>
-      </c>
-    </row>
-    <row r="21" ht="44.8" customHeight="1">
+        <v>3547.45612180165</v>
+      </c>
+    </row>
+    <row r="21" ht="83.2" customHeight="1">
       <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>331.738</v>
+        <v>418.693</v>
       </c>
       <c r="C21" t="n">
-        <v>238.425</v>
+        <v>51.238</v>
       </c>
       <c r="D21" t="n">
-        <v>1.287976931356871</v>
+        <v>70.427566</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.01870503597122308</v>
+        <v>0.1439920556107249</v>
       </c>
       <c r="F21" t="n">
-        <v>358.6187942575368</v>
+        <v>366.9366987660754</v>
       </c>
       <c r="H21" t="n">
-        <v>226</v>
+        <v>550</v>
       </c>
       <c r="I21" t="n">
-        <v>1186</v>
+        <v>2336</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.002727272727272911</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>0.06399205561072492</v>
       </c>
       <c r="N21" t="n">
-        <v>603.9872881355932</v>
+        <v>511.9675174013921</v>
       </c>
       <c r="O21" t="n">
-        <v>5139.745762711864</v>
-      </c>
-    </row>
-    <row r="22" ht="30.4" customHeight="1">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>333.234</v>
-      </c>
-      <c r="C22" t="n">
-        <v>310.607</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.275743132999038</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.1833648393194707</v>
-      </c>
-      <c r="F22" t="n">
-        <v>174.3874603497304</v>
-      </c>
-      <c r="H22" t="n">
-        <v>341</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1312</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>0.4024926686217007</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>0.1033648393194707</v>
-      </c>
-      <c r="N22" t="n">
-        <v>508.4918981481482</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3229.837962962964</v>
-      </c>
-    </row>
-    <row r="23" ht="59.2" customHeight="1">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>346.885</v>
-      </c>
-      <c r="C23" t="n">
-        <v>249.645</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.343589946687285</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.1512027491408935</v>
-      </c>
-      <c r="F23" t="n">
-        <v>836.6104885494151</v>
-      </c>
-      <c r="H23" t="n">
-        <v>760</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5144</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>0.07120274914089349</v>
-      </c>
-      <c r="N23" t="n">
-        <v>569.3694331983805</v>
-      </c>
-      <c r="O23" t="n">
-        <v>4447.388663967611</v>
-      </c>
-    </row>
-    <row r="24" ht="30.4" customHeight="1">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>368.764</v>
-      </c>
-      <c r="C24" t="n">
-        <v>352.682</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.266635785070893</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.05800464037122965</v>
-      </c>
-      <c r="F24" t="n">
-        <v>189.2197731446948</v>
-      </c>
-      <c r="H24" t="n">
-        <v>211</v>
-      </c>
-      <c r="I24" t="n">
-        <v>916</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>0.09123222748815163</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>547.6588669950739</v>
-      </c>
-      <c r="O24" t="n">
-        <v>4013.177339901478</v>
-      </c>
-    </row>
-    <row r="25" ht="40" customHeight="1">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>394.944</v>
-      </c>
-      <c r="C25" t="n">
-        <v>289.476</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.273849559537001</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.0335305719921104</v>
-      </c>
-      <c r="F25" t="n">
-        <v>268.7812893648614</v>
-      </c>
-      <c r="H25" t="n">
-        <v>200</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1199</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>631.0820610687023</v>
-      </c>
-      <c r="O25" t="n">
-        <v>5681.641221374046</v>
-      </c>
-    </row>
-    <row r="26" ht="54.40000000000001" customHeight="1">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>398.871</v>
-      </c>
-      <c r="C26" t="n">
-        <v>331.925</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.320039716917353</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.08689458689458684</v>
-      </c>
-      <c r="F26" t="n">
-        <v>583.2988554135266</v>
-      </c>
-      <c r="H26" t="n">
-        <v>665</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3311</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>0.7289473684210526</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>0.006894586894586843</v>
-      </c>
-      <c r="N26" t="n">
-        <v>519.646255850234</v>
-      </c>
-      <c r="O26" t="n">
-        <v>3452.925117004681</v>
-      </c>
-    </row>
-    <row r="27" ht="40" customHeight="1">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>397.749</v>
-      </c>
-      <c r="C27" t="n">
-        <v>311.916</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.278286213551816</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.06071428571428572</v>
-      </c>
-      <c r="F27" t="n">
-        <v>245.0280616919364</v>
-      </c>
-      <c r="H27" t="n">
-        <v>317</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1238</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>0.3446372239747633</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>535.1777566539924</v>
-      </c>
-      <c r="O27" t="n">
-        <v>3763.555133079848</v>
-      </c>
-    </row>
-    <row r="28" ht="49.6" customHeight="1">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>457.028</v>
-      </c>
-      <c r="C28" t="n">
-        <v>216.546</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.328899953573278</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.2270588235294118</v>
-      </c>
-      <c r="F28" t="n">
-        <v>505.8203759547845</v>
-      </c>
-      <c r="H28" t="n">
-        <v>597</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3799</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>0.1470588235294117</v>
-      </c>
-      <c r="N28" t="n">
-        <v>552.7979452054794</v>
-      </c>
-      <c r="O28" t="n">
-        <v>4115.95890410959</v>
-      </c>
-    </row>
-    <row r="29" ht="30.4" customHeight="1">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>454.223</v>
-      </c>
-      <c r="C29" t="n">
-        <v>132.209</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.271874970333988</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.03505154639175267</v>
-      </c>
-      <c r="F29" t="n">
-        <v>257.7940590789877</v>
-      </c>
-      <c r="H29" t="n">
-        <v>166</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1131</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>545.4621513944223</v>
-      </c>
-      <c r="O29" t="n">
-        <v>3969.243027888446</v>
-      </c>
-    </row>
-    <row r="30" ht="44.8" customHeight="1">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n">
-        <v>478.72</v>
-      </c>
-      <c r="C30" t="n">
-        <v>61.523</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.293588238765351</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.0190597204574332</v>
-      </c>
-      <c r="F30" t="n">
-        <v>406.6404887287352</v>
-      </c>
-      <c r="H30" t="n">
-        <v>273</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1931</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>463.607855361596</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2332.15710723192</v>
-      </c>
-    </row>
-    <row r="31" ht="30.4" customHeight="1">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="n">
-        <v>478.907</v>
-      </c>
-      <c r="C31" t="n">
-        <v>349.503</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.26344422157554</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.05236907730673312</v>
-      </c>
-      <c r="F31" t="n">
-        <v>220.045330793569</v>
-      </c>
-      <c r="H31" t="n">
-        <v>236</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1024</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>0.08898305084745761</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>479.0225118483413</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2640.450236966824</v>
+        <v>3299.350348027841</v>
       </c>
     </row>
   </sheetData>

--- a/Detector/output/Index_of_objects.xlsx
+++ b/Detector/output/Index_of_objects.xlsx
@@ -133,7 +133,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="476250" cy="933450"/>
+    <ext cx="419100" cy="304800"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -158,7 +158,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="933450" cy="876300"/>
+    <ext cx="419100" cy="419100"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -183,59 +183,59 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
+    <ext cx="933450" cy="819150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1676400" cy="1162050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
     <ext cx="533400" cy="533400"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>5</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2076450" cy="1962150"/>
-    <pic>
-      <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
@@ -258,7 +258,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="876300" cy="1104900"/>
+    <ext cx="419100" cy="304800"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -283,7 +283,7 @@
       <row>7</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1104900" cy="1162050"/>
+    <ext cx="361950" cy="361950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -308,314 +308,564 @@
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
+    <ext cx="361950" cy="361950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="419100" cy="361950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="304800" cy="361950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="419100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="361950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="419100" cy="419100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1447800" cy="1333500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="647700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="533400" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="361950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
     <ext cx="476250" cy="533400"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="704850"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>10</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="419100" cy="419100"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>11</row>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="590550" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="533400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="533400" cy="361950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1104900" cy="704850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="419100" cy="361950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="819150" cy="647700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="419100" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="876300" cy="590550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="361950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>29</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="533400" cy="533400"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="533400" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>13</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="647700" cy="704850"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="533400" cy="533400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="533400" cy="590550"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>16</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="304800" cy="533400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="16" name="Image 16" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1219200" cy="762000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="17" name="Image 17" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>18</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="590550" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="18" name="Image 18" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1447800" cy="1104900"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="19" name="Image 19" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="704850" cy="990600"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="20" name="Image 20" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="361950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -918,7 +1168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -926,7 +1176,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.7" customWidth="1" min="7" max="7"/>
+    <col width="26.4" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1006,120 +1256,120 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="78.40000000000001" customHeight="1">
+    <row r="2" ht="25.6" customHeight="1">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>93.313</v>
+        <v>31.603</v>
       </c>
       <c r="C2" t="n">
-        <v>275.638</v>
+        <v>104.907</v>
       </c>
       <c r="D2" t="n">
-        <v>98.402766</v>
+        <v>27.066006</v>
       </c>
       <c r="E2" t="n">
-        <v>0.665955934612651</v>
+        <v>-0.04909560723514206</v>
       </c>
       <c r="F2" t="n">
-        <v>76.4872812969394</v>
+        <v>210.9616680710992</v>
       </c>
       <c r="H2" t="n">
-        <v>407</v>
+        <v>202</v>
       </c>
       <c r="I2" t="n">
-        <v>3206</v>
+        <v>994</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6707920792079207</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5859559346126511</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="N2" t="n">
-        <v>455.0787234042553</v>
+        <v>492.2709359605911</v>
       </c>
       <c r="O2" t="n">
-        <v>2161.574468085106</v>
-      </c>
-    </row>
-    <row r="3" ht="73.60000000000001" customHeight="1">
+        <v>2905.418719211822</v>
+      </c>
+    </row>
+    <row r="3" ht="35.2" customHeight="1">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>122.111</v>
+        <v>45.815</v>
       </c>
       <c r="C3" t="n">
-        <v>260.117</v>
+        <v>353.617</v>
       </c>
       <c r="D3" t="n">
-        <v>119.104414</v>
+        <v>24.967866</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3071051086318262</v>
+        <v>-0.04761904761904767</v>
       </c>
       <c r="F3" t="n">
-        <v>406.8055277302022</v>
+        <v>193.899604596669</v>
       </c>
       <c r="H3" t="n">
-        <v>780</v>
+        <v>256</v>
       </c>
       <c r="I3" t="n">
-        <v>4209</v>
+        <v>1130</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1640625</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>0.2271051086318261</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="N3" t="n">
-        <v>463.1572033898305</v>
+        <v>435.8181818181818</v>
       </c>
       <c r="O3" t="n">
-        <v>2323.144067796609</v>
-      </c>
-    </row>
-    <row r="4" ht="44.8" customHeight="1">
+        <v>1776.363636363636</v>
+      </c>
+    </row>
+    <row r="4" ht="68.8" customHeight="1">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>207.57</v>
+        <v>115.379</v>
       </c>
       <c r="C4" t="n">
-        <v>349.129</v>
+        <v>265.727</v>
       </c>
       <c r="D4" t="n">
-        <v>60.985936</v>
+        <v>153.304096</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02981651376146788</v>
+        <v>0.3813868613138686</v>
       </c>
       <c r="F4" t="n">
-        <v>460.3854425858929</v>
+        <v>417.4173123451408</v>
       </c>
       <c r="H4" t="n">
-        <v>197</v>
+        <v>869</v>
       </c>
       <c r="I4" t="n">
-        <v>1942</v>
+        <v>4833</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -1128,40 +1378,43 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3013868613138685</v>
       </c>
       <c r="N4" t="n">
-        <v>610.7644766146993</v>
+        <v>463.3355457227138</v>
       </c>
       <c r="O4" t="n">
-        <v>5275.289532293986</v>
-      </c>
-    </row>
-    <row r="5" ht="40" customHeight="1">
+        <v>2326.710914454277</v>
+      </c>
+    </row>
+    <row r="5" ht="97.60000000000001" customHeight="1">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>209.253</v>
+        <v>133.892</v>
       </c>
       <c r="C5" t="n">
-        <v>235.807</v>
+        <v>174.845</v>
       </c>
       <c r="D5" t="n">
-        <v>53.712384</v>
+        <v>397.107964</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1197916666666666</v>
+        <v>0.3487143360338147</v>
       </c>
       <c r="F5" t="n">
-        <v>295.5070326524488</v>
+        <v>1202.226360883364</v>
       </c>
       <c r="H5" t="n">
-        <v>279</v>
+        <v>1263</v>
       </c>
       <c r="I5" t="n">
-        <v>1430</v>
+        <v>12307</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -1174,44 +1427,47 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0.03979166666666663</v>
+        <v>0.2687143360338147</v>
       </c>
       <c r="N5" t="n">
-        <v>515.5954142011834</v>
+        <v>582.3945375878853</v>
       </c>
       <c r="O5" t="n">
-        <v>3371.908284023668</v>
-      </c>
-    </row>
-    <row r="6" ht="164.8" customHeight="1">
+        <v>4707.890751757706</v>
+      </c>
+    </row>
+    <row r="6" ht="44.8" customHeight="1">
       <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>224.774</v>
+        <v>138.567</v>
       </c>
       <c r="C6" t="n">
-        <v>171.853</v>
+        <v>298.265</v>
       </c>
       <c r="D6" t="n">
-        <v>1099.705112</v>
+        <v>45.040072</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7439582803357925</v>
+        <v>0.1708074534161491</v>
       </c>
       <c r="F6" t="n">
-        <v>513.4100339231298</v>
+        <v>219.3898518419161</v>
       </c>
       <c r="H6" t="n">
-        <v>1813</v>
+        <v>358</v>
       </c>
       <c r="I6" t="n">
-        <v>32241</v>
+        <v>1528</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0181564245810053</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1219,89 +1475,92 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>0.6639582803357925</v>
+        <v>0.09080745341614911</v>
       </c>
       <c r="N6" t="n">
-        <v>572.0183805265773</v>
+        <v>456.2612359550562</v>
       </c>
       <c r="O6" t="n">
-        <v>4500.367610531544</v>
-      </c>
-    </row>
-    <row r="7" ht="92.80000000000001" customHeight="1">
+        <v>2185.224719101123</v>
+      </c>
+    </row>
+    <row r="7" ht="25.6" customHeight="1">
       <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>230.197</v>
+        <v>141.933</v>
       </c>
       <c r="C7" t="n">
-        <v>283.866</v>
+        <v>99.297</v>
       </c>
       <c r="D7" t="n">
-        <v>147.56918</v>
+        <v>26.366626</v>
       </c>
       <c r="E7" t="n">
-        <v>0.371563981042654</v>
+        <v>-0.03448275862068972</v>
       </c>
       <c r="F7" t="n">
-        <v>414.6506689001159</v>
+        <v>199.7191308994322</v>
       </c>
       <c r="H7" t="n">
-        <v>757</v>
+        <v>179</v>
       </c>
       <c r="I7" t="n">
-        <v>4619</v>
+        <v>865</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5824022346368718</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>0.291563981042654</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="N7" t="n">
-        <v>531.0049019607843</v>
+        <v>468.9974358974359</v>
       </c>
       <c r="O7" t="n">
-        <v>3680.098039215687</v>
-      </c>
-    </row>
-    <row r="8" ht="97.60000000000001" customHeight="1">
+        <v>2439.948717948719</v>
+      </c>
+    </row>
+    <row r="8" ht="30.4" customHeight="1">
       <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>252.263</v>
+        <v>164.934</v>
       </c>
       <c r="C8" t="n">
-        <v>207.57</v>
+        <v>199.716</v>
       </c>
       <c r="D8" t="n">
-        <v>293.949414</v>
+        <v>27.135944</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1805852962169878</v>
+        <v>0.08762886597938147</v>
       </c>
       <c r="F8" t="n">
-        <v>1409.03141020696</v>
+        <v>159.4834204774009</v>
       </c>
       <c r="H8" t="n">
-        <v>662</v>
+        <v>235</v>
       </c>
       <c r="I8" t="n">
-        <v>8434</v>
+        <v>860</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5904255319148937</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1309,44 +1568,47 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>0.1005852962169878</v>
+        <v>0.007628865979381463</v>
       </c>
       <c r="N8" t="n">
-        <v>605.7076074332172</v>
+        <v>426.638418079096</v>
       </c>
       <c r="O8" t="n">
-        <v>5174.152148664343</v>
-      </c>
-    </row>
-    <row r="9" ht="44.8" customHeight="1">
+        <v>1592.768361581921</v>
+      </c>
+    </row>
+    <row r="9" ht="30.4" customHeight="1">
       <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>283.679</v>
+        <v>177.276</v>
       </c>
       <c r="C9" t="n">
-        <v>4.488</v>
+        <v>27.676</v>
       </c>
       <c r="D9" t="n">
-        <v>33.849992</v>
+        <v>30.702782</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04132231404958686</v>
+        <v>0.0751708428246014</v>
       </c>
       <c r="F9" t="n">
-        <v>260.4093830330913</v>
+        <v>185.7349348898586</v>
       </c>
       <c r="H9" t="n">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="I9" t="n">
-        <v>1220</v>
+        <v>900</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2676991150442478</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1354,36 +1616,36 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>530.4831349206349</v>
+        <v>429.8928571428572</v>
       </c>
       <c r="O9" t="n">
-        <v>3669.662698412698</v>
-      </c>
-    </row>
-    <row r="10" ht="59.2" customHeight="1">
+        <v>1657.857142857143</v>
+      </c>
+    </row>
+    <row r="10" ht="30.4" customHeight="1">
       <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>305.745</v>
+        <v>182.325</v>
       </c>
       <c r="C10" t="n">
-        <v>193.358</v>
+        <v>202.708</v>
       </c>
       <c r="D10" t="n">
-        <v>77.63118</v>
+        <v>32.031604</v>
       </c>
       <c r="E10" t="n">
-        <v>0.381981981981982</v>
+        <v>-0.04366812227074246</v>
       </c>
       <c r="F10" t="n">
-        <v>209.9754177179316</v>
+        <v>247.4326397187202</v>
       </c>
       <c r="H10" t="n">
-        <v>457</v>
+        <v>164</v>
       </c>
       <c r="I10" t="n">
-        <v>2352</v>
+        <v>967</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1392,48 +1654,48 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>0.301981981981982</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="N10" t="n">
-        <v>463.268221574344</v>
+        <v>607.7834728033473</v>
       </c>
       <c r="O10" t="n">
-        <v>2325.36443148688</v>
-      </c>
-    </row>
-    <row r="11" ht="35.2" customHeight="1">
+        <v>5215.669456066946</v>
+      </c>
+    </row>
+    <row r="11" ht="30.4" customHeight="1">
       <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>311.355</v>
+        <v>185.317</v>
       </c>
       <c r="C11" t="n">
-        <v>247.214</v>
+        <v>210.749</v>
       </c>
       <c r="D11" t="n">
-        <v>37.207016</v>
+        <v>26.716316</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.03383458646616533</v>
+        <v>-0.03664921465968596</v>
       </c>
       <c r="F11" t="n">
-        <v>282.3009689595003</v>
+        <v>203.2516244927409</v>
       </c>
       <c r="H11" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I11" t="n">
-        <v>690</v>
+        <v>559</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3948275862068966</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1441,36 +1703,36 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>600.9245454545454</v>
+        <v>573.5353535353536</v>
       </c>
       <c r="O11" t="n">
-        <v>5078.49090909091</v>
-      </c>
-    </row>
-    <row r="12" ht="44.8" customHeight="1">
+        <v>4530.707070707071</v>
+      </c>
+    </row>
+    <row r="12" ht="35.2" customHeight="1">
       <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>336.039</v>
+        <v>193.171</v>
       </c>
       <c r="C12" t="n">
-        <v>72.369</v>
+        <v>192.984</v>
       </c>
       <c r="D12" t="n">
-        <v>51.824058</v>
+        <v>36.787388</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02564102564102555</v>
+        <v>0.04182509505703425</v>
       </c>
       <c r="F12" t="n">
-        <v>387.7410107024969</v>
+        <v>239.4558999113147</v>
       </c>
       <c r="H12" t="n">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="I12" t="n">
-        <v>1686</v>
+        <v>1258</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1483,36 +1745,36 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>457.3638157894737</v>
+        <v>509.328373015873</v>
       </c>
       <c r="O12" t="n">
-        <v>2207.276315789473</v>
-      </c>
-    </row>
-    <row r="13" ht="40" customHeight="1">
+        <v>3246.567460317461</v>
+      </c>
+    </row>
+    <row r="13" ht="30.4" customHeight="1">
       <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>343.519</v>
+        <v>225.335</v>
       </c>
       <c r="C13" t="n">
-        <v>106.029</v>
+        <v>119.867</v>
       </c>
       <c r="D13" t="n">
-        <v>41.683048</v>
+        <v>38.186148</v>
       </c>
       <c r="E13" t="n">
-        <v>0.238255033557047</v>
+        <v>-0.04029304029304037</v>
       </c>
       <c r="F13" t="n">
-        <v>170.9102563586194</v>
+        <v>293.4398155893915</v>
       </c>
       <c r="H13" t="n">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="I13" t="n">
-        <v>1587</v>
+        <v>756</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1520,100 +1782,94 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.3103448275862073</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>0.158255033557047</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="N13" t="n">
-        <v>451.9394273127753</v>
+        <v>617.6505281690141</v>
       </c>
       <c r="O13" t="n">
-        <v>2098.788546255506</v>
-      </c>
-    </row>
-    <row r="14" ht="59.2" customHeight="1">
+        <v>5413.010563380281</v>
+      </c>
+    </row>
+    <row r="14" ht="35.2" customHeight="1">
       <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>343.706</v>
+        <v>226.457</v>
       </c>
       <c r="C14" t="n">
-        <v>356.422</v>
+        <v>183.447</v>
       </c>
       <c r="D14" t="n">
-        <v>110.082412</v>
+        <v>30.353092</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2147395171537484</v>
+        <v>-0.032258064516129</v>
       </c>
       <c r="F14" t="n">
-        <v>483.2889092432861</v>
+        <v>229.2214438580302</v>
       </c>
       <c r="H14" t="n">
-        <v>422</v>
+        <v>250</v>
       </c>
       <c r="I14" t="n">
-        <v>2406</v>
+        <v>1036</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1059999999999999</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>0.1347395171537484</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="N14" t="n">
-        <v>541.5995145631068</v>
+        <v>500.4118303571428</v>
       </c>
       <c r="O14" t="n">
-        <v>3891.990291262136</v>
-      </c>
-    </row>
-    <row r="15" ht="44.8" customHeight="1">
+        <v>3068.236607142857</v>
+      </c>
+    </row>
+    <row r="15" ht="112" customHeight="1">
       <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>348.007</v>
+        <v>268.158</v>
       </c>
       <c r="C15" t="n">
-        <v>165.869</v>
+        <v>181.203</v>
       </c>
       <c r="D15" t="n">
-        <v>32.101542</v>
+        <v>451.239976</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2374727668845316</v>
+        <v>0.3902665840049597</v>
       </c>
       <c r="F15" t="n">
-        <v>131.4346574518721</v>
+        <v>1197.344794080929</v>
       </c>
       <c r="H15" t="n">
-        <v>226</v>
+        <v>1902</v>
       </c>
       <c r="I15" t="n">
-        <v>814</v>
+        <v>13280</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>0.6482300884955752</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1621,39 +1877,39 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>0.1574727668845315</v>
+        <v>0.3102665840049597</v>
       </c>
       <c r="N15" t="n">
-        <v>490.4742857142857</v>
+        <v>547.5613879003558</v>
       </c>
       <c r="O15" t="n">
-        <v>2869.485714285714</v>
-      </c>
-    </row>
-    <row r="16" ht="49.6" customHeight="1">
+        <v>4011.227758007117</v>
+      </c>
+    </row>
+    <row r="16" ht="54.40000000000001" customHeight="1">
       <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>369.886</v>
+        <v>261.426</v>
       </c>
       <c r="C16" t="n">
-        <v>28.237</v>
+        <v>347.072</v>
       </c>
       <c r="D16" t="n">
-        <v>74.55390800000001</v>
+        <v>108.124148</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.02439024390243905</v>
+        <v>-0.003880983182406261</v>
       </c>
       <c r="F16" t="n">
-        <v>557.3152788542328</v>
+        <v>777.0103559654132</v>
       </c>
       <c r="H16" t="n">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="I16" t="n">
-        <v>2444</v>
+        <v>2634</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1666,41 +1922,44 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>618.0178571428571</v>
+        <v>634.4275128865979</v>
       </c>
       <c r="O16" t="n">
-        <v>5420.357142857143</v>
-      </c>
-    </row>
-    <row r="17" ht="44.8" customHeight="1">
+        <v>5748.550257731958</v>
+      </c>
+    </row>
+    <row r="17" ht="40" customHeight="1">
       <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>378.114</v>
+        <v>273.02</v>
       </c>
       <c r="C17" t="n">
-        <v>2.431</v>
+        <v>86.955</v>
       </c>
       <c r="D17" t="n">
-        <v>11.959398</v>
+        <v>46.438832</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.4006024096385542</v>
       </c>
       <c r="F17" t="n">
-        <v>58.6145183277723</v>
+        <v>117.2715932676882</v>
       </c>
       <c r="H17" t="n">
-        <v>107</v>
+        <v>358</v>
       </c>
       <c r="I17" t="n">
-        <v>212</v>
+        <v>1476</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1270949720670389</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1708,39 +1967,39 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>0.07789473684210531</v>
+        <v>0.3206024096385542</v>
       </c>
       <c r="N17" t="n">
-        <v>513.1493055555555</v>
+        <v>457.0175879396985</v>
       </c>
       <c r="O17" t="n">
-        <v>3322.986111111111</v>
-      </c>
-    </row>
-    <row r="18" ht="64" customHeight="1">
+        <v>2200.35175879397</v>
+      </c>
+    </row>
+    <row r="18" ht="30.4" customHeight="1">
       <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>394.757</v>
+        <v>289.663</v>
       </c>
       <c r="C18" t="n">
-        <v>79.66200000000001</v>
+        <v>359.04</v>
       </c>
       <c r="D18" t="n">
-        <v>72.45576800000001</v>
+        <v>32.591108</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4073359073359073</v>
+        <v>0.1673819742489271</v>
       </c>
       <c r="F18" t="n">
-        <v>179.9423191114759</v>
+        <v>159.5216282532753</v>
       </c>
       <c r="H18" t="n">
-        <v>517</v>
+        <v>262</v>
       </c>
       <c r="I18" t="n">
-        <v>2058</v>
+        <v>1141</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1748,7 +2007,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.2693423597678919</v>
+        <v>0.1049618320610683</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1756,39 +2015,39 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>0.3273359073359073</v>
+        <v>0.08738197424892709</v>
       </c>
       <c r="N18" t="n">
-        <v>503.7524429967427</v>
+        <v>541.7461340206186</v>
       </c>
       <c r="O18" t="n">
-        <v>3135.048859934854</v>
-      </c>
-    </row>
-    <row r="19" ht="40" customHeight="1">
+        <v>3894.922680412372</v>
+      </c>
+    </row>
+    <row r="19" ht="44.8" customHeight="1">
       <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>391.578</v>
+        <v>323.697</v>
       </c>
       <c r="C19" t="n">
-        <v>116.501</v>
+        <v>344.08</v>
       </c>
       <c r="D19" t="n">
-        <v>29.933464</v>
+        <v>35.038938</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07943925233644855</v>
+        <v>0.005988023952095856</v>
       </c>
       <c r="F19" t="n">
-        <v>179.3448914409069</v>
+        <v>245.5049087976174</v>
       </c>
       <c r="H19" t="n">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="I19" t="n">
-        <v>861</v>
+        <v>1390</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1796,7 +2055,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0.5069060773480665</v>
+        <v>0.08021806853582536</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1804,103 +2063,544 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>491.0177664974619</v>
+        <v>592.1927710843373</v>
       </c>
       <c r="O19" t="n">
-        <v>2880.355329949238</v>
-      </c>
-    </row>
-    <row r="20" ht="92.80000000000001" customHeight="1">
+        <v>4903.855421686747</v>
+      </c>
+    </row>
+    <row r="20" ht="44.8" customHeight="1">
       <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>401.302</v>
+        <v>327.811</v>
       </c>
       <c r="C20" t="n">
-        <v>128.282</v>
+        <v>262.922</v>
       </c>
       <c r="D20" t="n">
-        <v>299.054888</v>
+        <v>56.439966</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4470299345182414</v>
+        <v>0.00123915737298641</v>
       </c>
       <c r="F20" t="n">
-        <v>651.7473255788649</v>
+        <v>400.4981226880811</v>
       </c>
       <c r="H20" t="n">
-        <v>1081</v>
+        <v>355</v>
       </c>
       <c r="I20" t="n">
-        <v>9941</v>
+        <v>1655</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4119718309859151</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>0.3670299345182413</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="N20" t="n">
-        <v>524.3728060900825</v>
+        <v>522.544665012407</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.45612180165</v>
-      </c>
-    </row>
-    <row r="21" ht="83.2" customHeight="1">
+        <v>3510.893300248139</v>
+      </c>
+    </row>
+    <row r="21" ht="44.8" customHeight="1">
       <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>418.693</v>
+        <v>331.738</v>
       </c>
       <c r="C21" t="n">
-        <v>51.238</v>
+        <v>238.425</v>
       </c>
       <c r="D21" t="n">
-        <v>70.427566</v>
+        <v>48.60691</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1439920556107249</v>
+        <v>-0.01870503597122308</v>
       </c>
       <c r="F21" t="n">
-        <v>366.9366987660754</v>
+        <v>358.6187942575368</v>
       </c>
       <c r="H21" t="n">
-        <v>550</v>
+        <v>226</v>
       </c>
       <c r="I21" t="n">
-        <v>2336</v>
+        <v>1186</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>0.002727272727272911</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>0.06399205561072492</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="N21" t="n">
-        <v>511.9675174013921</v>
+        <v>603.9872881355932</v>
       </c>
       <c r="O21" t="n">
-        <v>3299.350348027841</v>
+        <v>5139.745762711864</v>
+      </c>
+    </row>
+    <row r="22" ht="30.4" customHeight="1">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>333.234</v>
+      </c>
+      <c r="C22" t="n">
+        <v>310.607</v>
+      </c>
+      <c r="D22" t="n">
+        <v>36.997202</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1833648393194707</v>
+      </c>
+      <c r="F22" t="n">
+        <v>174.3874603497304</v>
+      </c>
+      <c r="H22" t="n">
+        <v>341</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1312</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4024926686217007</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>0.1033648393194707</v>
+      </c>
+      <c r="N22" t="n">
+        <v>508.4918981481482</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3229.837962962964</v>
+      </c>
+    </row>
+    <row r="23" ht="59.2" customHeight="1">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>346.885</v>
+      </c>
+      <c r="C23" t="n">
+        <v>249.645</v>
+      </c>
+      <c r="D23" t="n">
+        <v>162.815664</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1512027491408935</v>
+      </c>
+      <c r="F23" t="n">
+        <v>836.6104885494151</v>
+      </c>
+      <c r="H23" t="n">
+        <v>760</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5144</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>0.07120274914089349</v>
+      </c>
+      <c r="N23" t="n">
+        <v>569.3694331983805</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4447.388663967611</v>
+      </c>
+    </row>
+    <row r="24" ht="30.4" customHeight="1">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>368.764</v>
+      </c>
+      <c r="C24" t="n">
+        <v>352.682</v>
+      </c>
+      <c r="D24" t="n">
+        <v>30.143278</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.05800464037122965</v>
+      </c>
+      <c r="F24" t="n">
+        <v>189.2197731446948</v>
+      </c>
+      <c r="H24" t="n">
+        <v>211</v>
+      </c>
+      <c r="I24" t="n">
+        <v>916</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.09123222748815163</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>547.6588669950739</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4013.177339901478</v>
+      </c>
+    </row>
+    <row r="25" ht="40" customHeight="1">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>394.944</v>
+      </c>
+      <c r="C25" t="n">
+        <v>289.476</v>
+      </c>
+      <c r="D25" t="n">
+        <v>35.458566</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.0335305719921104</v>
+      </c>
+      <c r="F25" t="n">
+        <v>268.7812893648614</v>
+      </c>
+      <c r="H25" t="n">
+        <v>200</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1199</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>631.0820610687023</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5681.641221374046</v>
+      </c>
+    </row>
+    <row r="26" ht="54.40000000000001" customHeight="1">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>398.871</v>
+      </c>
+      <c r="C26" t="n">
+        <v>331.925</v>
+      </c>
+      <c r="D26" t="n">
+        <v>98.19295200000001</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.08689458689458684</v>
+      </c>
+      <c r="F26" t="n">
+        <v>583.2988554135266</v>
+      </c>
+      <c r="H26" t="n">
+        <v>665</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3311</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.7289473684210526</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0.006894586894586843</v>
+      </c>
+      <c r="N26" t="n">
+        <v>519.646255850234</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3452.925117004681</v>
+      </c>
+    </row>
+    <row r="27" ht="40" customHeight="1">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>397.749</v>
+      </c>
+      <c r="C27" t="n">
+        <v>311.916</v>
+      </c>
+      <c r="D27" t="n">
+        <v>39.16528</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.06071428571428572</v>
+      </c>
+      <c r="F27" t="n">
+        <v>245.0280616919364</v>
+      </c>
+      <c r="H27" t="n">
+        <v>317</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1238</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3446372239747633</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>535.1777566539924</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3763.555133079848</v>
+      </c>
+    </row>
+    <row r="28" ht="49.6" customHeight="1">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>457.028</v>
+      </c>
+      <c r="C28" t="n">
+        <v>216.546</v>
+      </c>
+      <c r="D28" t="n">
+        <v>118.8946</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2270588235294118</v>
+      </c>
+      <c r="F28" t="n">
+        <v>505.8203759547845</v>
+      </c>
+      <c r="H28" t="n">
+        <v>597</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3799</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>0.1470588235294117</v>
+      </c>
+      <c r="N28" t="n">
+        <v>552.7979452054794</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4115.95890410959</v>
+      </c>
+    </row>
+    <row r="29" ht="30.4" customHeight="1">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>454.223</v>
+      </c>
+      <c r="C29" t="n">
+        <v>132.209</v>
+      </c>
+      <c r="D29" t="n">
+        <v>33.91993</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.03505154639175267</v>
+      </c>
+      <c r="F29" t="n">
+        <v>257.7940590789877</v>
+      </c>
+      <c r="H29" t="n">
+        <v>166</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1131</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>545.4621513944223</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3969.243027888446</v>
+      </c>
+    </row>
+    <row r="30" ht="44.8" customHeight="1">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>478.72</v>
+      </c>
+      <c r="C30" t="n">
+        <v>61.523</v>
+      </c>
+      <c r="D30" t="n">
+        <v>55.041206</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.0190597204574332</v>
+      </c>
+      <c r="F30" t="n">
+        <v>406.6404887287352</v>
+      </c>
+      <c r="H30" t="n">
+        <v>273</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1931</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>463.607855361596</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2332.15710723192</v>
+      </c>
+    </row>
+    <row r="31" ht="30.4" customHeight="1">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>478.907</v>
+      </c>
+      <c r="C31" t="n">
+        <v>349.503</v>
+      </c>
+      <c r="D31" t="n">
+        <v>28.045138</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.05236907730673312</v>
+      </c>
+      <c r="F31" t="n">
+        <v>220.045330793569</v>
+      </c>
+      <c r="H31" t="n">
+        <v>236</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1024</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0.08898305084745761</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>479.0225118483413</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2640.450236966824</v>
       </c>
     </row>
   </sheetData>

--- a/Detector/output/Index_of_objects.xlsx
+++ b/Detector/output/Index_of_objects.xlsx
@@ -133,7 +133,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="419100" cy="304800"/>
+    <ext cx="762000" cy="419100"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -158,7 +158,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="419100" cy="419100"/>
+    <ext cx="1104900" cy="1562100"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -183,7 +183,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="933450" cy="819150"/>
+    <ext cx="819150" cy="1104900"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -208,7 +208,7 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1676400" cy="1162050"/>
+    <ext cx="361950" cy="419100"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -233,7 +233,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="533400" cy="533400"/>
+    <ext cx="647700" cy="819150"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -258,7 +258,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="419100" cy="304800"/>
+    <ext cx="419100" cy="419100"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -283,7 +283,7 @@
       <row>7</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="361950" cy="361950"/>
+    <ext cx="533400" cy="533400"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -308,7 +308,7 @@
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="361950" cy="361950"/>
+    <ext cx="476250" cy="419100"/>
     <pic>
       <nvPicPr>
         <cNvPr id="8" name="Image 8" descr="Picture"/>
@@ -333,7 +333,7 @@
       <row>9</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="419100" cy="361950"/>
+    <ext cx="590550" cy="647700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -358,7 +358,7 @@
       <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="304800" cy="361950"/>
+    <ext cx="1104900" cy="876300"/>
     <pic>
       <nvPicPr>
         <cNvPr id="10" name="Image 10" descr="Picture"/>
@@ -383,7 +383,7 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="476250" cy="419100"/>
+    <ext cx="1676400" cy="1676400"/>
     <pic>
       <nvPicPr>
         <cNvPr id="11" name="Image 11" descr="Picture"/>
@@ -408,7 +408,7 @@
       <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="476250" cy="361950"/>
+    <ext cx="819150" cy="647700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="12" name="Image 12" descr="Picture"/>
@@ -433,7 +433,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="419100" cy="419100"/>
+    <ext cx="476250" cy="304800"/>
     <pic>
       <nvPicPr>
         <cNvPr id="13" name="Image 13" descr="Picture"/>
@@ -458,7 +458,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1447800" cy="1333500"/>
+    <ext cx="419100" cy="361950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="14" name="Image 14" descr="Picture"/>
@@ -483,7 +483,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="762000" cy="647700"/>
+    <ext cx="876300" cy="876300"/>
     <pic>
       <nvPicPr>
         <cNvPr id="15" name="Image 15" descr="Picture"/>
@@ -508,7 +508,7 @@
       <row>16</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="533400" cy="476250"/>
+    <ext cx="647700" cy="590550"/>
     <pic>
       <nvPicPr>
         <cNvPr id="16" name="Image 16" descr="Picture"/>
@@ -533,7 +533,7 @@
       <row>17</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="476250" cy="361950"/>
+    <ext cx="1733550" cy="933450"/>
     <pic>
       <nvPicPr>
         <cNvPr id="17" name="Image 17" descr="Picture"/>
@@ -558,7 +558,7 @@
       <row>18</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="476250" cy="533400"/>
+    <ext cx="990600" cy="762000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="18" name="Image 18" descr="Picture"/>
@@ -583,7 +583,7 @@
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="590550" cy="533400"/>
+    <ext cx="533400" cy="533400"/>
     <pic>
       <nvPicPr>
         <cNvPr id="19" name="Image 19" descr="Picture"/>
@@ -591,281 +591,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="533400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="20" name="Image 20" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>21</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="533400" cy="361950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="21" name="Image 21" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>22</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1104900" cy="704850"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="22" name="Image 22" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>23</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="419100" cy="361950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="23" name="Image 23" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>24</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="361950" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="24" name="Image 24" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>25</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="819150" cy="647700"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="25" name="Image 25" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>26</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="419100" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="26" name="Image 26" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>27</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="876300" cy="590550"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="27" name="Image 27" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>28</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="361950" cy="361950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="28" name="Image 28" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>29</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="533400" cy="533400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="29" name="Image 29" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="361950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="30" name="Image 30" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1168,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +901,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26.4" customWidth="1" min="7" max="7"/>
+    <col width="27.3" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1256,30 +981,30 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="25.6" customHeight="1">
+    <row r="2" ht="35.2" customHeight="1">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>31.603</v>
+        <v>39.083</v>
       </c>
       <c r="C2" t="n">
-        <v>104.907</v>
+        <v>166.243</v>
       </c>
       <c r="D2" t="n">
-        <v>27.066006</v>
+        <v>49.935732</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.04909560723514206</v>
+        <v>-0.02521008403361336</v>
       </c>
       <c r="F2" t="n">
-        <v>210.9616680710992</v>
+        <v>373.224211401723</v>
       </c>
       <c r="H2" t="n">
-        <v>202</v>
+        <v>354</v>
       </c>
       <c r="I2" t="n">
-        <v>994</v>
+        <v>1472</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -1287,7 +1012,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.6707920792079207</v>
+        <v>0.0918079096045199</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -1295,81 +1020,81 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>492.2709359605911</v>
+        <v>332.8845628415301</v>
       </c>
       <c r="O2" t="n">
-        <v>2905.418719211822</v>
-      </c>
-    </row>
-    <row r="3" ht="35.2" customHeight="1">
+        <v>-282.3087431693993</v>
+      </c>
+    </row>
+    <row r="3" ht="131.2" customHeight="1">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>45.815</v>
+        <v>57.409</v>
       </c>
       <c r="C3" t="n">
-        <v>353.617</v>
+        <v>340.153</v>
       </c>
       <c r="D3" t="n">
-        <v>24.967866</v>
+        <v>324.51232</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04761904761904767</v>
+        <v>0.4262931034482759</v>
       </c>
       <c r="F3" t="n">
-        <v>193.899604596669</v>
+        <v>761.602566289559</v>
       </c>
       <c r="H3" t="n">
-        <v>256</v>
+        <v>1589</v>
       </c>
       <c r="I3" t="n">
-        <v>1130</v>
+        <v>10545</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>0.1640625</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+      <c r="M3" t="n">
+        <v>0.3462931034482759</v>
       </c>
       <c r="N3" t="n">
-        <v>435.8181818181818</v>
+        <v>440.6140120210368</v>
       </c>
       <c r="O3" t="n">
-        <v>1776.363636363636</v>
-      </c>
-    </row>
-    <row r="4" ht="68.8" customHeight="1">
+        <v>1872.280240420736</v>
+      </c>
+    </row>
+    <row r="4" ht="92.80000000000001" customHeight="1">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>115.379</v>
+        <v>61.523</v>
       </c>
       <c r="C4" t="n">
-        <v>265.727</v>
+        <v>321.079</v>
       </c>
       <c r="D4" t="n">
-        <v>153.304096</v>
+        <v>203.16989</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3813868613138686</v>
+        <v>0.4409638554216867</v>
       </c>
       <c r="F4" t="n">
-        <v>417.4173123451408</v>
+        <v>451.9351366906799</v>
       </c>
       <c r="H4" t="n">
-        <v>869</v>
+        <v>1084</v>
       </c>
       <c r="I4" t="n">
-        <v>4833</v>
+        <v>5622</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -1382,39 +1107,39 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0.3013868613138685</v>
+        <v>0.3609638554216867</v>
       </c>
       <c r="N4" t="n">
-        <v>463.3355457227138</v>
+        <v>384.9510467980296</v>
       </c>
       <c r="O4" t="n">
-        <v>2326.710914454277</v>
-      </c>
-    </row>
-    <row r="5" ht="97.60000000000001" customHeight="1">
+        <v>759.0209359605915</v>
+      </c>
+    </row>
+    <row r="5" ht="35.2" customHeight="1">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>133.892</v>
+        <v>92.191</v>
       </c>
       <c r="C5" t="n">
-        <v>174.845</v>
+        <v>337.348</v>
       </c>
       <c r="D5" t="n">
-        <v>397.107964</v>
+        <v>30.003402</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3487143360338147</v>
+        <v>-0.034965034965035</v>
       </c>
       <c r="F5" t="n">
-        <v>1202.226360883364</v>
+        <v>227.7578471341536</v>
       </c>
       <c r="H5" t="n">
-        <v>1263</v>
+        <v>208</v>
       </c>
       <c r="I5" t="n">
-        <v>12307</v>
+        <v>1079</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -1423,91 +1148,85 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>0.2687143360338147</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>582.3945375878853</v>
+        <v>591.1216216216217</v>
       </c>
       <c r="O5" t="n">
-        <v>4707.890751757706</v>
-      </c>
-    </row>
-    <row r="6" ht="44.8" customHeight="1">
+        <v>4882.432432432432</v>
+      </c>
+    </row>
+    <row r="6" ht="68.8" customHeight="1">
       <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>138.567</v>
+        <v>103.037</v>
       </c>
       <c r="C6" t="n">
-        <v>298.265</v>
+        <v>243.287</v>
       </c>
       <c r="D6" t="n">
-        <v>45.040072</v>
+        <v>126.58778</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1708074534161491</v>
+        <v>0.1303867403314917</v>
       </c>
       <c r="F6" t="n">
-        <v>219.3898518419161</v>
+        <v>682.3841699089427</v>
       </c>
       <c r="H6" t="n">
-        <v>358</v>
+        <v>743</v>
       </c>
       <c r="I6" t="n">
-        <v>1528</v>
+        <v>3762</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>0.0181564245810053</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
       <c r="M6" t="n">
-        <v>0.09080745341614911</v>
+        <v>0.05038674033149167</v>
       </c>
       <c r="N6" t="n">
-        <v>456.2612359550562</v>
+        <v>414.2903430749682</v>
       </c>
       <c r="O6" t="n">
-        <v>2185.224719101123</v>
-      </c>
-    </row>
-    <row r="7" ht="25.6" customHeight="1">
+        <v>1345.806861499364</v>
+      </c>
+    </row>
+    <row r="7" ht="35.2" customHeight="1">
       <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>141.933</v>
+        <v>110.33</v>
       </c>
       <c r="C7" t="n">
-        <v>99.297</v>
+        <v>16.643</v>
       </c>
       <c r="D7" t="n">
-        <v>26.366626</v>
+        <v>24.758052</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03448275862068972</v>
+        <v>-0.03389830508474567</v>
       </c>
       <c r="F7" t="n">
-        <v>199.7191308994322</v>
+        <v>187.1980478944614</v>
       </c>
       <c r="H7" t="n">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I7" t="n">
-        <v>865</v>
+        <v>758</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1515,7 +1234,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.5824022346368718</v>
+        <v>0.2889221556886223</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1523,84 +1242,78 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>468.9974358974359</v>
+        <v>323.535519125683</v>
       </c>
       <c r="O7" t="n">
-        <v>2439.948717948719</v>
-      </c>
-    </row>
-    <row r="8" ht="30.4" customHeight="1">
+        <v>-469.289617486339</v>
+      </c>
+    </row>
+    <row r="8" ht="44.8" customHeight="1">
       <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>164.934</v>
+        <v>135.762</v>
       </c>
       <c r="C8" t="n">
-        <v>199.716</v>
+        <v>185.504</v>
       </c>
       <c r="D8" t="n">
-        <v>27.135944</v>
+        <v>42.032738</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08762886597938147</v>
+        <v>0.06156405990016633</v>
       </c>
       <c r="F8" t="n">
-        <v>159.4834204774009</v>
+        <v>262.6351275443693</v>
       </c>
       <c r="H8" t="n">
-        <v>235</v>
+        <v>423</v>
       </c>
       <c r="I8" t="n">
-        <v>860</v>
+        <v>1351</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>0.5904255319148937</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>0.007628865979381463</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="N8" t="n">
-        <v>426.638418079096</v>
+        <v>356.8590425531915</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.768361581921</v>
-      </c>
-    </row>
-    <row r="9" ht="30.4" customHeight="1">
+        <v>197.1808510638302</v>
+      </c>
+    </row>
+    <row r="9" ht="35.2" customHeight="1">
       <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>177.276</v>
+        <v>143.616</v>
       </c>
       <c r="C9" t="n">
-        <v>27.676</v>
+        <v>86.955</v>
       </c>
       <c r="D9" t="n">
-        <v>30.702782</v>
+        <v>28.67458</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0751708428246014</v>
+        <v>-0.04878048780487809</v>
       </c>
       <c r="F9" t="n">
-        <v>185.7349348898586</v>
+        <v>223.48333027138</v>
       </c>
       <c r="H9" t="n">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="I9" t="n">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1608,7 +1321,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.2676991150442478</v>
+        <v>0.06159420289855078</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1616,86 +1329,89 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>429.8928571428572</v>
+        <v>436.3837209302326</v>
       </c>
       <c r="O9" t="n">
-        <v>1657.857142857143</v>
-      </c>
-    </row>
-    <row r="10" ht="30.4" customHeight="1">
+        <v>1787.674418604651</v>
+      </c>
+    </row>
+    <row r="10" ht="54.40000000000001" customHeight="1">
       <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>182.325</v>
+        <v>171.666</v>
       </c>
       <c r="C10" t="n">
-        <v>202.708</v>
+        <v>175.967</v>
       </c>
       <c r="D10" t="n">
-        <v>32.031604</v>
+        <v>62.664448</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04366812227074246</v>
+        <v>0.3660714285714286</v>
       </c>
       <c r="F10" t="n">
-        <v>247.4326397187202</v>
+        <v>178.0300972579453</v>
       </c>
       <c r="H10" t="n">
-        <v>164</v>
+        <v>413</v>
       </c>
       <c r="I10" t="n">
-        <v>967</v>
+        <v>1669</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2088377723970947</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0.2860714285714286</v>
       </c>
       <c r="N10" t="n">
-        <v>607.7834728033473</v>
+        <v>356.631161971831</v>
       </c>
       <c r="O10" t="n">
-        <v>5215.669456066946</v>
-      </c>
-    </row>
-    <row r="11" ht="30.4" customHeight="1">
+        <v>192.6232394366198</v>
+      </c>
+    </row>
+    <row r="11" ht="73.60000000000001" customHeight="1">
       <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>185.317</v>
+        <v>183.26</v>
       </c>
       <c r="C11" t="n">
-        <v>210.749</v>
+        <v>7.48</v>
       </c>
       <c r="D11" t="n">
-        <v>26.716316</v>
+        <v>224.081352</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.03664921465968596</v>
+        <v>-0.01622971285892638</v>
       </c>
       <c r="F11" t="n">
-        <v>203.2516244927409</v>
+        <v>1652.421367361814</v>
       </c>
       <c r="H11" t="n">
-        <v>145</v>
+        <v>683</v>
       </c>
       <c r="I11" t="n">
-        <v>559</v>
+        <v>6745</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>0.3948275862068966</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1703,36 +1419,36 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>573.5353535353536</v>
+        <v>607.8742321867322</v>
       </c>
       <c r="O11" t="n">
-        <v>4530.707070707071</v>
-      </c>
-    </row>
-    <row r="12" ht="35.2" customHeight="1">
+        <v>5217.484643734644</v>
+      </c>
+    </row>
+    <row r="12" ht="140.8" customHeight="1">
       <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>193.171</v>
+        <v>227.579</v>
       </c>
       <c r="C12" t="n">
-        <v>192.984</v>
+        <v>163.812</v>
       </c>
       <c r="D12" t="n">
-        <v>36.787388</v>
+        <v>584.262052</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04182509505703425</v>
+        <v>0.609049557098396</v>
       </c>
       <c r="F12" t="n">
-        <v>239.4558999113147</v>
+        <v>636.4205019701586</v>
       </c>
       <c r="H12" t="n">
-        <v>249</v>
+        <v>2445</v>
       </c>
       <c r="I12" t="n">
-        <v>1258</v>
+        <v>17805</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1741,40 +1457,43 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5290495570983961</v>
       </c>
       <c r="N12" t="n">
-        <v>509.328373015873</v>
+        <v>476.9831598285364</v>
       </c>
       <c r="O12" t="n">
-        <v>3246.567460317461</v>
-      </c>
-    </row>
-    <row r="13" ht="30.4" customHeight="1">
+        <v>2599.663196570729</v>
+      </c>
+    </row>
+    <row r="13" ht="54.40000000000001" customHeight="1">
       <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>225.335</v>
+        <v>339.592</v>
       </c>
       <c r="C13" t="n">
-        <v>119.867</v>
+        <v>36.091</v>
       </c>
       <c r="D13" t="n">
-        <v>38.186148</v>
+        <v>107.844396</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.04029304029304037</v>
+        <v>0.2217898832684825</v>
       </c>
       <c r="F13" t="n">
-        <v>293.4398155893915</v>
+        <v>464.9239191493589</v>
       </c>
       <c r="H13" t="n">
-        <v>162</v>
+        <v>846</v>
       </c>
       <c r="I13" t="n">
-        <v>756</v>
+        <v>3523</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1782,44 +1501,47 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.416666666666667</v>
+        <v>0.08569739952718702</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1417898832684825</v>
       </c>
       <c r="N13" t="n">
-        <v>617.6505281690141</v>
+        <v>385.98375</v>
       </c>
       <c r="O13" t="n">
-        <v>5413.010563380281</v>
-      </c>
-    </row>
-    <row r="14" ht="35.2" customHeight="1">
+        <v>779.6750000000002</v>
+      </c>
+    </row>
+    <row r="14" ht="25.6" customHeight="1">
       <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>226.457</v>
+        <v>360.162</v>
       </c>
       <c r="C14" t="n">
-        <v>183.447</v>
+        <v>135.014</v>
       </c>
       <c r="D14" t="n">
-        <v>30.353092</v>
+        <v>31.192348</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.032258064516129</v>
+        <v>0.09865470852017932</v>
       </c>
       <c r="F14" t="n">
-        <v>229.2214438580302</v>
+        <v>179.1648221346337</v>
       </c>
       <c r="H14" t="n">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="I14" t="n">
-        <v>1036</v>
+        <v>946</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1827,179 +1549,182 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.1059999999999999</v>
+        <v>0.3246887966804981</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>0.01865470852017932</v>
       </c>
       <c r="N14" t="n">
-        <v>500.4118303571428</v>
+        <v>428.8557213930348</v>
       </c>
       <c r="O14" t="n">
-        <v>3068.236607142857</v>
-      </c>
-    </row>
-    <row r="15" ht="112" customHeight="1">
+        <v>1637.114427860697</v>
+      </c>
+    </row>
+    <row r="15" ht="30.4" customHeight="1">
       <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>268.158</v>
+        <v>373.813</v>
       </c>
       <c r="C15" t="n">
-        <v>181.203</v>
+        <v>86.02</v>
       </c>
       <c r="D15" t="n">
-        <v>451.239976</v>
+        <v>35.108876</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3902665840049597</v>
+        <v>-0.0239043824701195</v>
       </c>
       <c r="F15" t="n">
-        <v>1197.344794080929</v>
+        <v>261.1395969253502</v>
       </c>
       <c r="H15" t="n">
-        <v>1902</v>
+        <v>247</v>
       </c>
       <c r="I15" t="n">
-        <v>13280</v>
+        <v>1138</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3572874493927127</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>0.3102665840049597</v>
-      </c>
       <c r="N15" t="n">
-        <v>547.5613879003558</v>
+        <v>476.2334630350194</v>
       </c>
       <c r="O15" t="n">
-        <v>4011.227758007117</v>
-      </c>
-    </row>
-    <row r="16" ht="54.40000000000001" customHeight="1">
+        <v>2584.66926070039</v>
+      </c>
+    </row>
+    <row r="16" ht="73.60000000000001" customHeight="1">
       <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>261.426</v>
+        <v>432.531</v>
       </c>
       <c r="C16" t="n">
-        <v>347.072</v>
+        <v>216.172</v>
       </c>
       <c r="D16" t="n">
-        <v>108.124148</v>
+        <v>122.811128</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.003880983182406261</v>
+        <v>0.1526195899772209</v>
       </c>
       <c r="F16" t="n">
-        <v>777.0103559654132</v>
+        <v>628.4494338390292</v>
       </c>
       <c r="H16" t="n">
-        <v>313</v>
+        <v>900</v>
       </c>
       <c r="I16" t="n">
-        <v>2634</v>
+        <v>3795</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0.03333333333333321</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>0.07261958997722091</v>
       </c>
       <c r="N16" t="n">
-        <v>634.4275128865979</v>
+        <v>448.6105510752688</v>
       </c>
       <c r="O16" t="n">
-        <v>5748.550257731958</v>
-      </c>
-    </row>
-    <row r="17" ht="40" customHeight="1">
+        <v>2032.211021505376</v>
+      </c>
+    </row>
+    <row r="17" ht="49.6" customHeight="1">
       <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>273.02</v>
+        <v>433.092</v>
       </c>
       <c r="C17" t="n">
-        <v>86.955</v>
+        <v>170.357</v>
       </c>
       <c r="D17" t="n">
-        <v>46.438832</v>
+        <v>42.941932</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4006024096385542</v>
+        <v>0.02605863192182412</v>
       </c>
       <c r="F17" t="n">
-        <v>117.2715932676882</v>
+        <v>289.20501130063</v>
       </c>
       <c r="H17" t="n">
-        <v>358</v>
+        <v>438</v>
       </c>
       <c r="I17" t="n">
-        <v>1476</v>
+        <v>1491</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1270949720670389</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>0.3206024096385542</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="N17" t="n">
-        <v>457.0175879396985</v>
+        <v>446.121237458194</v>
       </c>
       <c r="O17" t="n">
-        <v>2200.35175879397</v>
-      </c>
-    </row>
-    <row r="18" ht="30.4" customHeight="1">
+        <v>1982.42474916388</v>
+      </c>
+    </row>
+    <row r="18" ht="78.40000000000001" customHeight="1">
       <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>289.663</v>
+        <v>463.386</v>
       </c>
       <c r="C18" t="n">
-        <v>359.04</v>
+        <v>191.301</v>
       </c>
       <c r="D18" t="n">
-        <v>32.591108</v>
+        <v>233.033416</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1673819742489271</v>
+        <v>0.3115246098439376</v>
       </c>
       <c r="F18" t="n">
-        <v>159.5216282532753</v>
+        <v>787.6800029579215</v>
       </c>
       <c r="H18" t="n">
-        <v>262</v>
+        <v>1548</v>
       </c>
       <c r="I18" t="n">
-        <v>1141</v>
+        <v>7379</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -2007,7 +1732,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.1049618320610683</v>
+        <v>0.5167958656330747</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -2015,39 +1740,39 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>0.08738197424892709</v>
+        <v>0.2315246098439376</v>
       </c>
       <c r="N18" t="n">
-        <v>541.7461340206186</v>
+        <v>459.9716652136007</v>
       </c>
       <c r="O18" t="n">
-        <v>3894.922680412372</v>
-      </c>
-    </row>
-    <row r="19" ht="44.8" customHeight="1">
+        <v>2259.433304272014</v>
+      </c>
+    </row>
+    <row r="19" ht="64" customHeight="1">
       <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>323.697</v>
+        <v>471.24</v>
       </c>
       <c r="C19" t="n">
-        <v>344.08</v>
+        <v>14.773</v>
       </c>
       <c r="D19" t="n">
-        <v>35.038938</v>
+        <v>58.468168</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005988023952095856</v>
+        <v>-0.007177033492822948</v>
       </c>
       <c r="F19" t="n">
-        <v>245.5049087976174</v>
+        <v>422.0191615398255</v>
       </c>
       <c r="H19" t="n">
-        <v>321</v>
+        <v>537</v>
       </c>
       <c r="I19" t="n">
-        <v>1390</v>
+        <v>2108</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -2055,7 +1780,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0.08021806853582536</v>
+        <v>0.3244878957169459</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -2063,10 +1788,10 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>592.1927710843373</v>
+        <v>430.1858669833729</v>
       </c>
       <c r="O19" t="n">
-        <v>4903.855421686747</v>
+        <v>1663.717339667459</v>
       </c>
     </row>
     <row r="20" ht="44.8" customHeight="1">
@@ -2074,33 +1799,30 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>327.811</v>
+        <v>479.655</v>
       </c>
       <c r="C20" t="n">
-        <v>262.922</v>
+        <v>358.666</v>
       </c>
       <c r="D20" t="n">
-        <v>56.439966</v>
+        <v>53.85226</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00123915737298641</v>
+        <v>-0.03376623376623367</v>
       </c>
       <c r="F20" t="n">
-        <v>400.4981226880811</v>
+        <v>409.4365186578972</v>
       </c>
       <c r="H20" t="n">
-        <v>355</v>
+        <v>228</v>
       </c>
       <c r="I20" t="n">
-        <v>1655</v>
+        <v>530</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>0.4119718309859151</v>
+          <t>NO</t>
+        </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -2108,499 +1830,10 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>522.544665012407</v>
+        <v>696.5822864321608</v>
       </c>
       <c r="O20" t="n">
-        <v>3510.893300248139</v>
-      </c>
-    </row>
-    <row r="21" ht="44.8" customHeight="1">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>331.738</v>
-      </c>
-      <c r="C21" t="n">
-        <v>238.425</v>
-      </c>
-      <c r="D21" t="n">
-        <v>48.60691</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.01870503597122308</v>
-      </c>
-      <c r="F21" t="n">
-        <v>358.6187942575368</v>
-      </c>
-      <c r="H21" t="n">
-        <v>226</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1186</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>603.9872881355932</v>
-      </c>
-      <c r="O21" t="n">
-        <v>5139.745762711864</v>
-      </c>
-    </row>
-    <row r="22" ht="30.4" customHeight="1">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>333.234</v>
-      </c>
-      <c r="C22" t="n">
-        <v>310.607</v>
-      </c>
-      <c r="D22" t="n">
-        <v>36.997202</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.1833648393194707</v>
-      </c>
-      <c r="F22" t="n">
-        <v>174.3874603497304</v>
-      </c>
-      <c r="H22" t="n">
-        <v>341</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1312</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>0.4024926686217007</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>0.1033648393194707</v>
-      </c>
-      <c r="N22" t="n">
-        <v>508.4918981481482</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3229.837962962964</v>
-      </c>
-    </row>
-    <row r="23" ht="59.2" customHeight="1">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>346.885</v>
-      </c>
-      <c r="C23" t="n">
-        <v>249.645</v>
-      </c>
-      <c r="D23" t="n">
-        <v>162.815664</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.1512027491408935</v>
-      </c>
-      <c r="F23" t="n">
-        <v>836.6104885494151</v>
-      </c>
-      <c r="H23" t="n">
-        <v>760</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5144</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>0.07120274914089349</v>
-      </c>
-      <c r="N23" t="n">
-        <v>569.3694331983805</v>
-      </c>
-      <c r="O23" t="n">
-        <v>4447.388663967611</v>
-      </c>
-    </row>
-    <row r="24" ht="30.4" customHeight="1">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>368.764</v>
-      </c>
-      <c r="C24" t="n">
-        <v>352.682</v>
-      </c>
-      <c r="D24" t="n">
-        <v>30.143278</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.05800464037122965</v>
-      </c>
-      <c r="F24" t="n">
-        <v>189.2197731446948</v>
-      </c>
-      <c r="H24" t="n">
-        <v>211</v>
-      </c>
-      <c r="I24" t="n">
-        <v>916</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>0.09123222748815163</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>547.6588669950739</v>
-      </c>
-      <c r="O24" t="n">
-        <v>4013.177339901478</v>
-      </c>
-    </row>
-    <row r="25" ht="40" customHeight="1">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>394.944</v>
-      </c>
-      <c r="C25" t="n">
-        <v>289.476</v>
-      </c>
-      <c r="D25" t="n">
-        <v>35.458566</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.0335305719921104</v>
-      </c>
-      <c r="F25" t="n">
-        <v>268.7812893648614</v>
-      </c>
-      <c r="H25" t="n">
-        <v>200</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1199</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>631.0820610687023</v>
-      </c>
-      <c r="O25" t="n">
-        <v>5681.641221374046</v>
-      </c>
-    </row>
-    <row r="26" ht="54.40000000000001" customHeight="1">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>398.871</v>
-      </c>
-      <c r="C26" t="n">
-        <v>331.925</v>
-      </c>
-      <c r="D26" t="n">
-        <v>98.19295200000001</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.08689458689458684</v>
-      </c>
-      <c r="F26" t="n">
-        <v>583.2988554135266</v>
-      </c>
-      <c r="H26" t="n">
-        <v>665</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3311</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>0.7289473684210526</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>0.006894586894586843</v>
-      </c>
-      <c r="N26" t="n">
-        <v>519.646255850234</v>
-      </c>
-      <c r="O26" t="n">
-        <v>3452.925117004681</v>
-      </c>
-    </row>
-    <row r="27" ht="40" customHeight="1">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>397.749</v>
-      </c>
-      <c r="C27" t="n">
-        <v>311.916</v>
-      </c>
-      <c r="D27" t="n">
-        <v>39.16528</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.06071428571428572</v>
-      </c>
-      <c r="F27" t="n">
-        <v>245.0280616919364</v>
-      </c>
-      <c r="H27" t="n">
-        <v>317</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1238</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>0.3446372239747633</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>535.1777566539924</v>
-      </c>
-      <c r="O27" t="n">
-        <v>3763.555133079848</v>
-      </c>
-    </row>
-    <row r="28" ht="49.6" customHeight="1">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>457.028</v>
-      </c>
-      <c r="C28" t="n">
-        <v>216.546</v>
-      </c>
-      <c r="D28" t="n">
-        <v>118.8946</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.2270588235294118</v>
-      </c>
-      <c r="F28" t="n">
-        <v>505.8203759547845</v>
-      </c>
-      <c r="H28" t="n">
-        <v>597</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3799</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>0.1470588235294117</v>
-      </c>
-      <c r="N28" t="n">
-        <v>552.7979452054794</v>
-      </c>
-      <c r="O28" t="n">
-        <v>4115.95890410959</v>
-      </c>
-    </row>
-    <row r="29" ht="30.4" customHeight="1">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>454.223</v>
-      </c>
-      <c r="C29" t="n">
-        <v>132.209</v>
-      </c>
-      <c r="D29" t="n">
-        <v>33.91993</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.03505154639175267</v>
-      </c>
-      <c r="F29" t="n">
-        <v>257.7940590789877</v>
-      </c>
-      <c r="H29" t="n">
-        <v>166</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1131</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>545.4621513944223</v>
-      </c>
-      <c r="O29" t="n">
-        <v>3969.243027888446</v>
-      </c>
-    </row>
-    <row r="30" ht="44.8" customHeight="1">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n">
-        <v>478.72</v>
-      </c>
-      <c r="C30" t="n">
-        <v>61.523</v>
-      </c>
-      <c r="D30" t="n">
-        <v>55.041206</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.0190597204574332</v>
-      </c>
-      <c r="F30" t="n">
-        <v>406.6404887287352</v>
-      </c>
-      <c r="H30" t="n">
-        <v>273</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1931</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>463.607855361596</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2332.15710723192</v>
-      </c>
-    </row>
-    <row r="31" ht="30.4" customHeight="1">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="n">
-        <v>478.907</v>
-      </c>
-      <c r="C31" t="n">
-        <v>349.503</v>
-      </c>
-      <c r="D31" t="n">
-        <v>28.045138</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.05236907730673312</v>
-      </c>
-      <c r="F31" t="n">
-        <v>220.045330793569</v>
-      </c>
-      <c r="H31" t="n">
-        <v>236</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1024</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>0.08898305084745761</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>479.0225118483413</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2640.450236966824</v>
+        <v>6991.645728643216</v>
       </c>
     </row>
   </sheetData>
